--- a/convertcsv.xlsx
+++ b/convertcsv.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mauricio\Desktop\LPSQuiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Trabajo\juegos\lpsquiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20700" windowHeight="8430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="8430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="207">
   <si>
     <t>categoria</t>
   </si>
@@ -676,9 +676,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75:D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1030,7 @@
     <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="100.625" customWidth="1"/>
     <col min="3" max="3" width="66.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5" customWidth="1"/>
     <col min="5" max="5" width="68.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="94.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="111.125" bestFit="1" customWidth="1"/>
@@ -1073,15 +1074,15 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>109</v>
       </c>
       <c r="H2" t="s">
@@ -1099,13 +1100,13 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>110</v>
@@ -1125,13 +1126,13 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>111</v>
@@ -1151,13 +1152,13 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>112</v>
@@ -1177,13 +1178,13 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>113</v>
@@ -1203,13 +1204,13 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>114</v>
@@ -1232,10 +1233,10 @@
         <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>115</v>
@@ -1255,13 +1256,13 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>116</v>
@@ -1281,13 +1282,13 @@
         <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>117</v>
@@ -1307,13 +1308,13 @@
         <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>118</v>
@@ -1333,13 +1334,13 @@
         <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>119</v>
@@ -1359,13 +1360,13 @@
         <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>120</v>
@@ -1385,13 +1386,13 @@
         <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>121</v>
@@ -1411,13 +1412,13 @@
         <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>122</v>
@@ -1437,13 +1438,13 @@
         <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>123</v>
@@ -1463,13 +1464,13 @@
         <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>124</v>
@@ -1489,13 +1490,13 @@
         <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>125</v>
@@ -1515,13 +1516,13 @@
         <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>126</v>
@@ -1541,13 +1542,13 @@
         <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>127</v>
@@ -1567,13 +1568,13 @@
         <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>128</v>
@@ -1593,13 +1594,13 @@
         <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>129</v>
@@ -1619,13 +1620,13 @@
         <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>130</v>
@@ -1645,13 +1646,13 @@
         <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>131</v>
@@ -1671,13 +1672,13 @@
         <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>132</v>
@@ -1697,13 +1698,13 @@
         <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>133</v>
@@ -1723,13 +1724,13 @@
         <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>134</v>
@@ -1749,13 +1750,13 @@
         <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>135</v>
@@ -1775,13 +1776,13 @@
         <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>136</v>
@@ -1801,13 +1802,13 @@
         <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="F30" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>137</v>
@@ -1827,13 +1828,13 @@
         <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>138</v>
@@ -1853,13 +1854,13 @@
         <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>139</v>
@@ -1879,13 +1880,13 @@
         <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>140</v>
@@ -1905,13 +1906,13 @@
         <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>141</v>
@@ -1931,13 +1932,13 @@
         <v>83</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="F35" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>142</v>
@@ -1957,13 +1958,13 @@
         <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="F36" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>143</v>
@@ -1983,13 +1984,13 @@
         <v>82</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="F37" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>144</v>
@@ -2009,13 +2010,13 @@
         <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="E38" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>145</v>
@@ -2035,13 +2036,13 @@
         <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E39" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>146</v>
@@ -2061,13 +2062,13 @@
         <v>79</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E40" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>147</v>
@@ -2087,13 +2088,13 @@
         <v>78</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E41" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>148</v>
@@ -2113,13 +2114,13 @@
         <v>77</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="F42" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>149</v>
@@ -2139,13 +2140,13 @@
         <v>76</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="F43" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>150</v>
@@ -2165,13 +2166,13 @@
         <v>75</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="E44" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>151</v>
@@ -2191,13 +2192,13 @@
         <v>74</v>
       </c>
       <c r="D45" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>152</v>
@@ -2217,13 +2218,13 @@
         <v>73</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>153</v>
@@ -2243,13 +2244,13 @@
         <v>72</v>
       </c>
       <c r="D47" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F47" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>154</v>
@@ -2269,13 +2270,13 @@
         <v>71</v>
       </c>
       <c r="D48" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>155</v>
@@ -2295,13 +2296,13 @@
         <v>70</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>156</v>
@@ -2321,13 +2322,13 @@
         <v>69</v>
       </c>
       <c r="D50" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F50" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>157</v>
@@ -2347,13 +2348,13 @@
         <v>68</v>
       </c>
       <c r="D51" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E51" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>158</v>
@@ -2373,13 +2374,13 @@
         <v>67</v>
       </c>
       <c r="D52" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="E52" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>159</v>
@@ -2399,13 +2400,13 @@
         <v>66</v>
       </c>
       <c r="D53" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E53" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>160</v>
@@ -2425,13 +2426,13 @@
         <v>65</v>
       </c>
       <c r="D54" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E54" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F54" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>161</v>
@@ -2451,13 +2452,13 @@
         <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E55" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F55" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>162</v>
@@ -2477,13 +2478,13 @@
         <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E56" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>163</v>
@@ -2503,13 +2504,13 @@
         <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E57" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>164</v>
@@ -2529,13 +2530,13 @@
         <v>62</v>
       </c>
       <c r="D58" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E58" t="s">
         <v>56</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>165</v>
@@ -2555,13 +2556,13 @@
         <v>61</v>
       </c>
       <c r="D59" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E59" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>166</v>
@@ -2581,13 +2582,13 @@
         <v>60</v>
       </c>
       <c r="D60" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E60" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="F60" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>167</v>
@@ -2607,13 +2608,13 @@
         <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E61" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F61" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>168</v>
@@ -2633,13 +2634,13 @@
         <v>58</v>
       </c>
       <c r="D62" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="E62" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>169</v>
@@ -2659,13 +2660,13 @@
         <v>57</v>
       </c>
       <c r="D63" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E63" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>170</v>
@@ -2685,13 +2686,13 @@
         <v>56</v>
       </c>
       <c r="D64" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E64" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>171</v>
@@ -2711,13 +2712,13 @@
         <v>55</v>
       </c>
       <c r="D65" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="F65" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>172</v>
@@ -2737,13 +2738,13 @@
         <v>54</v>
       </c>
       <c r="D66" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E66" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F66" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>173</v>
@@ -2763,13 +2764,13 @@
         <v>53</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="E67" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>174</v>
@@ -2789,10 +2790,10 @@
         <v>52</v>
       </c>
       <c r="D68" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="E68" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="F68" t="s">
         <v>38</v>
@@ -2815,13 +2816,13 @@
         <v>51</v>
       </c>
       <c r="D69" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="F69" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>176</v>
@@ -2841,13 +2842,13 @@
         <v>50</v>
       </c>
       <c r="D70" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E70" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F70" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>177</v>
@@ -2867,13 +2868,13 @@
         <v>49</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E71" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>178</v>
@@ -2893,13 +2894,13 @@
         <v>48</v>
       </c>
       <c r="D72" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="E72" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="F72" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>179</v>
@@ -2919,13 +2920,13 @@
         <v>47</v>
       </c>
       <c r="D73" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E73" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>180</v>
@@ -2945,13 +2946,13 @@
         <v>46</v>
       </c>
       <c r="D74" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="F74" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>181</v>
@@ -2971,13 +2972,13 @@
         <v>45</v>
       </c>
       <c r="D75" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="E75" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>182</v>
@@ -2997,13 +2998,13 @@
         <v>44</v>
       </c>
       <c r="D76" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E76" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="F76" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>183</v>
@@ -3023,13 +3024,13 @@
         <v>43</v>
       </c>
       <c r="D77" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="E77" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>184</v>
@@ -3049,13 +3050,13 @@
         <v>42</v>
       </c>
       <c r="D78" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="E78" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F78" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>185</v>
@@ -3075,13 +3076,13 @@
         <v>41</v>
       </c>
       <c r="D79" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E79" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="F79" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>186</v>
@@ -3101,13 +3102,13 @@
         <v>40</v>
       </c>
       <c r="D80" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="E80" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>187</v>
@@ -3127,13 +3128,13 @@
         <v>39</v>
       </c>
       <c r="D81" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="E81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F81" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>188</v>
@@ -3153,13 +3154,13 @@
         <v>38</v>
       </c>
       <c r="D82" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="E82" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="F82" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>189</v>
@@ -3179,13 +3180,13 @@
         <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E83" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>190</v>
@@ -3205,13 +3206,13 @@
         <v>36</v>
       </c>
       <c r="D84" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="E84" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>191</v>
@@ -3231,13 +3232,13 @@
         <v>35</v>
       </c>
       <c r="D85" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E85" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="F85" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>192</v>
@@ -3257,13 +3258,13 @@
         <v>34</v>
       </c>
       <c r="D86" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="E86" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F86" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>193</v>
@@ -3283,13 +3284,13 @@
         <v>33</v>
       </c>
       <c r="D87" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="E87" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>194</v>
@@ -3309,13 +3310,13 @@
         <v>31</v>
       </c>
       <c r="D88" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E88" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>195</v>
@@ -3335,13 +3336,13 @@
         <v>30</v>
       </c>
       <c r="D89" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="E89" t="s">
         <v>41</v>
       </c>
       <c r="F89" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>196</v>
@@ -3361,13 +3362,13 @@
         <v>22</v>
       </c>
       <c r="D90" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="E90" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>197</v>
@@ -3387,13 +3388,13 @@
         <v>21</v>
       </c>
       <c r="D91" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E91" t="s">
         <v>37</v>
       </c>
       <c r="F91" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>198</v>
@@ -3413,13 +3414,13 @@
         <v>20</v>
       </c>
       <c r="D92" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F92" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>199</v>
@@ -3439,13 +3440,13 @@
         <v>19</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E93" t="s">
         <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>200</v>
@@ -3465,13 +3466,13 @@
         <v>18</v>
       </c>
       <c r="D94" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="E94" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="F94" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>201</v>
@@ -3491,13 +3492,13 @@
         <v>17</v>
       </c>
       <c r="D95" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E95" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="F95" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>202</v>
@@ -3517,13 +3518,13 @@
         <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E96" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="F96" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>203</v>
@@ -3543,13 +3544,13 @@
         <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="E97" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>204</v>
@@ -3569,13 +3570,13 @@
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E98" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="F98" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>205</v>
@@ -3595,13 +3596,13 @@
         <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E99" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>206</v>
@@ -3790,1590 +3791,4241 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:H1 H2 H3 H4" numberStoredAsText="1"/>
+    <ignoredError sqref="D1:H1 H2:H4 A1:C1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D98"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" activeCellId="2" sqref="E1:E98 G1:G98 I1:I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1">
-        <f ca="1">RANDBETWEEN($A$1,$A$98)</f>
+      <c r="D1">
+        <f ca="1">RANDBETWEEN($B$1,$B$29)</f>
+        <v>23</v>
+      </c>
+      <c r="E1" t="str">
+        <f ca="1">VLOOKUP(D1,$B$1:$C$98,2,FALSE)</f>
+        <v>restaurante</v>
+      </c>
+      <c r="F1">
+        <f ca="1">RANDBETWEEN($B$1,$B$29)</f>
+        <v>20</v>
+      </c>
+      <c r="G1" t="str">
+        <f ca="1">VLOOKUP(F1,$B$1:$C$98,2,FALSE)</f>
+        <v>nomenclatura de autopista</v>
+      </c>
+      <c r="H1">
+        <f ca="1">RANDBETWEEN($B$1,$B$29)</f>
+        <v>16</v>
+      </c>
+      <c r="I1" t="str">
+        <f ca="1">VLOOKUP(H1,$B$1:$C$98,2,FALSE)</f>
+        <v>identificacion comienzo de zona urbana</v>
+      </c>
+      <c r="J1">
+        <f ca="1">RANDBETWEEN($B$1,$B$29)</f>
+        <v>7</v>
+      </c>
+      <c r="K1" t="str">
+        <f ca="1">VLOOKUP(J1,$B$1:$C$98,2,FALSE)</f>
+        <v>direccion permitida</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="str">
-        <f ca="1">VLOOKUP(C1,$A$1:$B$98,2,FALSE)</f>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:J29" ca="1" si="0">RANDBETWEEN($B$1,$B$29)</f>
+        <v>29</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E65" ca="1" si="1">VLOOKUP(D2,$B$1:$C$98,2,FALSE)</f>
+        <v>utilizacion de carriles</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G65" ca="1" si="2">VLOOKUP(F2,$B$1:$C$98,2,FALSE)</f>
+        <v>bifurcacion permitida</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I65" ca="1" si="3">VLOOKUP(H2,$B$1:$C$98,2,FALSE)</f>
+        <v>estacionamiento permitido</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K65" ca="1" si="4">VLOOKUP(J2,$B$1:$C$98,2,FALSE)</f>
+        <v>ruta nacional</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>esquema de recorrido</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>comienzo autopista_Mesa de trabajo</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>desvio por cambio de sentido de circulacion</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>servicio mecanico</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>estacionamiento permitido</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>museo</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>fin de autopista</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>estacionamiento permitido</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>permitido estacionar</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="G5" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>ambas direcciones permitidas</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>museo</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>ambas direcciones permitidas</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>fin de autopista</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>aeropuerto</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="0"/>
         <v>24</v>
       </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C65" ca="1" si="0">RANDBETWEEN($A$1,$A$98)</f>
+      <c r="I6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>ruta nacional</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>direcciones permitidas</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>estacion de servicio</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>restaurante</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>nomenclatura de autopista</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>hospital o sala sanitaria</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="str">
-        <f t="shared" ref="D2:D65" ca="1" si="1">VLOOKUP(C2,$A$1:$B$98,2,FALSE)</f>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ambas direcciones permitidas</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>estacionamiento permitido</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>nomenclatura de autopista</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>aeropuerto</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>hospital o sala sanitaria</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>ambas direcciones permitidas</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>estacion de servicio</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>gomeria</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>restaurante</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>comienzo autopista_Mesa de trabajo</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>ambas direcciones permitidas</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>utilizacion de carriles</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ruta provincial</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>desvio por cambio de sentido de circulacion</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>direccion permitida</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>servicio telefonico</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>estacionamiento permitido</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>direccion permitida</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>hotel</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>permitido estacionar</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>hospital o sala sanitaria</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>direcciones permitidas</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>camino o calle sin salida</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>comienzo autopista_Mesa de trabajo</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>identificacion de jurisdiccion</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>servicio mecanico</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>utilizacion de carriles</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>policia</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>estacion de servicio</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>nomenclatura de autopista</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>comienzo autopista_Mesa de trabajo</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>ruta provincial</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>identificacion comienzo de zona urbana</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>bifurcacion permitida</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>servicio telefonico</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>mojon kilometro</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>identificacion de jurisdiccion</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>hospital o sala sanitaria</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>mojon kilometro</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>aeropuerto</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>estacion de servicio</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>comienzo autopista_Mesa de trabajo</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>policia</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>servicio telefonico</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>bifurcacion permitida</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>identificacion comienzo de zona urbana</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>nomenclatura de autopista</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>direccion permitida</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ambas direcciones permitidas</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>bifurcacion permitida</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>servicio telefonico</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>comienzo autopista_Mesa de trabajo</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>direcciones permitidas</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>direccion permitida</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>esquema de recorrido</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>direcciones permitidas</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>fin de autopista</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>ambas direcciones permitidas</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>utilizacion de carriles</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>fin de autopista</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>camino o calle sin salida</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>hospital o sala sanitaria</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>estacion de servicio</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>mojon kilometro</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>hotel</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>servicio mecanico</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>ambas direcciones permitidas</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>fin de autopista</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>camino o calle sin salida</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>bifurcacion permitida</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>estacionamiento permitido</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>ambas direcciones permitidas</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>comienzo autopista_Mesa de trabajo</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>estacionamiento permitido</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>ambas direcciones permitidas</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>hotel</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>direccion permitida</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>hotel</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>hospital o sala sanitaria</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>identificacion comienzo de zona urbana</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>comienzo autopista_Mesa de trabajo</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>estacion de servicio</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>desvio por cambio de sentido de circulacion</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>policia</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ambas direcciones permitidas</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>desvio por cambio de sentido de circulacion</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>direccion permitida</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>utilizacion de carriles</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30">
+        <f ca="1">RANDBETWEEN($B$30,$B$38)</f>
+        <v>35</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>panel de prevencion curva</v>
+      </c>
+      <c r="F30">
+        <f ca="1">RANDBETWEEN($B$30,$B$38)</f>
+        <v>38</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>panel de prevencion</v>
+      </c>
+      <c r="H30">
+        <f ca="1">RANDBETWEEN($B$30,$B$38)</f>
+        <v>34</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>curva peligrosa</v>
+      </c>
+      <c r="J30">
+        <f ca="1">RANDBETWEEN($B$30,$B$38)</f>
+        <v>32</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>cruce ferroviario</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ca="1" si="0"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D2:J65" ca="1" si="5">RANDBETWEEN($B$1,$B$98)</f>
+        <v>97</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>uso de cadenas</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cruz de san andres</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>vallas</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>camino o calle sin salida</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>utilizacion de carriles</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>comienzo autopista_Mesa de trabajo</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ca="1" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>ceda el paso</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ca="1" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>policia</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>tunel</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>policia</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>aeropuerto</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>comienzo autopista_Mesa de trabajo</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>camino o calle sin salida</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>esquema de recorrido</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ca="1" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>panel de prevencion curva</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ca="1" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>circulacion obligatoria</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ancho max permitido</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cruce ferroviario</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ca="1" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>curva</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>comienzo autopista_Mesa de trabajo</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>36</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>fin de autopista</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>carga maxima permitida en eje</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>circulacion obligatoria</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ca="1" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>utilizacion de carriles</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>37</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>proximidad a se¤ales restrictivas</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>ancho limitado</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ca="1" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>hospital o sala sanitaria</v>
+      </c>
+      <c r="J37">
+        <f t="shared" ca="1" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>cruce de peatones</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>38</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>no estacionar ni detenerse</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>atencion</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ca="1" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>limite velocidad minima</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ca="1" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>panel de prevencion curva</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39">
+        <v>39</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39">
+        <f ca="1">RANDBETWEEN($B$39,$B$68)</f>
+        <v>40</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ancho limitado</v>
+      </c>
+      <c r="F39">
+        <f ca="1">RANDBETWEEN($B$39,$B$68)</f>
+        <v>54</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>curva</v>
+      </c>
+      <c r="H39">
+        <f ca="1">RANDBETWEEN($B$39,$B$68)</f>
+        <v>61</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>proximidad a se¤ales restrictivas</v>
+      </c>
+      <c r="J39">
+        <f ca="1">RANDBETWEEN($B$39,$B$68)</f>
+        <v>48</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>camino lateral oblicuo</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40:J68" ca="1" si="6">RANDBETWEEN($B$39,$B$68)</f>
+        <v>56</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>escuela</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Rotonda</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ca="1" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>proximidad a se¤ales restrictivas</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ca="1" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>doble circulacion</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <v>41</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>baden</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>calzada resbaladiza</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ca="1" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>proximidad a se¤ales restrictivas</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ca="1" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>calzada dividida</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42">
+        <v>42</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>tunel</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>proximidad de semaforo</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ca="1" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>altura limitada</v>
+      </c>
+      <c r="J42">
+        <f t="shared" ca="1" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>curva contracurva</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>43</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>proximidad a se¤ales restrictivas</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>subida peligrosa</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ca="1" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>bifurcacion T</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>curva en s</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>44</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="6"/>
         <v>60</v>
       </c>
-      <c r="D3" t="str">
+      <c r="E44" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>pendiente peligrosa</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ca="1" si="0"/>
+      <c r="F44">
+        <f t="shared" ca="1" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>altura limitada</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ca="1" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>subida peligrosa</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ca="1" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>baden</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>45</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>curva en s</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>proximidad de semaforo</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ca="1" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>calzada dividida</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>curva en s</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <v>46</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>curva</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>maquinaria agricola</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ca="1" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>pendiente peligrosa</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ca="1" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>bifurcacion T</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47">
+        <v>47</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="6"/>
+        <v>41</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>animales sueltos</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>vientos fuertes laterales</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ca="1" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Rotonda</v>
+      </c>
+      <c r="J47">
+        <f t="shared" ca="1" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>subida peligrosa</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48">
+        <v>48</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>ancho limitado</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>altura limitada</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ca="1" si="6"/>
         <v>66</v>
       </c>
-      <c r="D4" t="str">
+      <c r="I48" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>tunel</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ca="1" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>puente movil</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49">
+        <v>49</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="E49" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>tunel</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ca="1" si="0"/>
+        <v>bifurcacion T</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cruce de caminos</v>
+      </c>
+      <c r="H49">
+        <f t="shared" ca="1" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>maquinaria agricola</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ca="1" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>zona de derrumbes</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>bifurcacion Y</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>calzada resbaladiza</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ca="1" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>zona de derrumbes</v>
+      </c>
+      <c r="J50">
+        <f t="shared" ca="1" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>zona de derrumbes</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <v>51</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D51">
+        <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="E51" t="str">
         <f t="shared" ca="1" si="1"/>
+        <v>curva en s</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>proximidad de semaforo</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ca="1" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>altura limitada</v>
+      </c>
+      <c r="J51">
+        <f t="shared" ca="1" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>ancho limitado</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52">
+        <v>52</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>proximidad a se¤ales restrictivas</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>calzada dividida</v>
+      </c>
+      <c r="H52">
+        <f t="shared" ca="1" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>lomo de burro</v>
+      </c>
+      <c r="J52">
+        <f t="shared" ca="1" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>curva sinuosa</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53">
+        <v>53</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>calzada resbaladiza</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>altura limitada</v>
+      </c>
+      <c r="H53">
+        <f t="shared" ca="1" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>bifurcacion Y</v>
+      </c>
+      <c r="J53">
+        <f t="shared" ca="1" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>doble circulacion</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54">
+        <v>54</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>proximidad de semaforo</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>maquinaria agricola</v>
+      </c>
+      <c r="H54">
+        <f t="shared" ca="1" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>curva sinuosa</v>
+      </c>
+      <c r="J54">
+        <f t="shared" ca="1" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>vientos fuertes laterales</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="D6" t="str">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55">
+        <v>55</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="E55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>vallas</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="D7" t="str">
+        <v>subida peligrosa</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>curva sinuosa</v>
+      </c>
+      <c r="H55">
+        <f t="shared" ca="1" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>lomo de burro</v>
+      </c>
+      <c r="J55">
+        <f t="shared" ca="1" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>bifurcacion T</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <v>56</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="E56" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>identificacion de jurisdiccion</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="D8" t="str">
+        <v>puente movil</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>ancho limitado</v>
+      </c>
+      <c r="H56">
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>proximidad de semaforo</v>
+      </c>
+      <c r="J56">
+        <f t="shared" ca="1" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>irregularidad serrucho</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57">
+        <v>57</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="E57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>bandillera</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="D9" t="str">
+        <v>corredor aereo</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>camino lateral izquierdo</v>
+      </c>
+      <c r="H57">
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>proximidad de semaforo</v>
+      </c>
+      <c r="J57">
+        <f t="shared" ca="1" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>altura limitada</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <v>58</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="E58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>contramano</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="0"/>
+        <v>baden</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>altura limitada</v>
+      </c>
+      <c r="H58">
+        <f t="shared" ca="1" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>irregularidad serrucho</v>
+      </c>
+      <c r="J58">
+        <f t="shared" ca="1" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>ancho limitado</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59">
+        <v>59</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="6"/>
         <v>55</v>
       </c>
-      <c r="D10" t="str">
+      <c r="E59" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>doble circulacion</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="F59">
+        <f t="shared" ca="1" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>maquinaria agricola</v>
+      </c>
+      <c r="H59">
+        <f t="shared" ca="1" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>maquinaria agricola</v>
+      </c>
+      <c r="J59">
+        <f t="shared" ca="1" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>calzada resbaladiza</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="0"/>
-        <v>74</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ceda el paso</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>camino o calle sin salida</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>vallas</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ca="1" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>carga maxima permitida en eje</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B60">
+        <v>60</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="6"/>
         <v>56</v>
       </c>
-      <c r="D15" t="str">
+      <c r="E60" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>escuela</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ca="1" si="0"/>
+      <c r="F60">
+        <f t="shared" ca="1" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>altura limitada</v>
+      </c>
+      <c r="H60">
+        <f t="shared" ca="1" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>maquinaria agricola</v>
+      </c>
+      <c r="J60">
+        <f t="shared" ca="1" si="6"/>
         <v>61</v>
       </c>
-      <c r="D16" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="K60" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>proximidad a se¤ales restrictivas</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ca="1" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>servicio mecanico</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18">
-        <f t="shared" ca="1" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>pendiente peligrosa</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>identificacion comienzo de zona urbana</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>aeropuerto</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21">
-        <f t="shared" ca="1" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>prohibido circ bicicletas</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ca="1" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>curva</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ca="1" si="0"/>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61">
+        <v>61</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="6"/>
         <v>42</v>
       </c>
-      <c r="D23" t="str">
+      <c r="E61" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>baden</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D24" t="str">
+      <c r="F61">
+        <f t="shared" ca="1" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cruce de caminos</v>
+      </c>
+      <c r="H61">
+        <f t="shared" ca="1" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>baden</v>
+      </c>
+      <c r="J61">
+        <f t="shared" ca="1" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>escuela</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62">
+        <v>62</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="E62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>aeropuerto</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="D25" t="str">
+        <v>subida peligrosa</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cruce de caminos</v>
+      </c>
+      <c r="H62">
+        <f t="shared" ca="1" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>camino lateral izquierdo</v>
+      </c>
+      <c r="J62">
+        <f t="shared" ca="1" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>cruce de caminos</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63">
+        <v>63</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="E63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>calzada resbaladiza</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ca="1" si="0"/>
+        <v>corredor aereo</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ca="1" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>calzada dividida</v>
+      </c>
+      <c r="H63">
+        <f t="shared" ca="1" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>calzada dividida</v>
+      </c>
+      <c r="J63">
+        <f t="shared" ca="1" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>bifurcacion Y</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64">
+        <v>64</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D26" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>doble circulacion</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27">
-        <f t="shared" ca="1" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>zona de derrumbes</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ca="1" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>bandillera</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>policia</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>policia</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31">
-        <f t="shared" ca="1" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>curva en s</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32">
-        <f t="shared" ca="1" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>ruta provincial</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33">
-        <f t="shared" ca="1" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>limite velocidad maxima</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34">
-        <f t="shared" ca="1" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>cruce de caminos</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35">
-        <f t="shared" ca="1" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>camino lateral izquierdo</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>36</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36">
-        <f t="shared" ca="1" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>conos</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>37</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37">
-        <f t="shared" ca="1" si="0"/>
-        <v>97</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>uso de cadenas</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>38</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>identificacion comienzo de zona urbana</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>39</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39">
-        <f t="shared" ca="1" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>prohibido girar en u</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40">
-        <f t="shared" ca="1" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="D40" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>permitido estacionar</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>41</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41">
-        <f t="shared" ca="1" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>cruce ferroviario</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>42</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42">
-        <f t="shared" ca="1" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>cruz de san andres</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>43</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43">
-        <f t="shared" ca="1" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="D43" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>desvio</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>44</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="D44" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>panel de prevencion curva</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>45</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="D45" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>panel de prevencion curva</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>46</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46">
-        <f t="shared" ca="1" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="D46" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>servicio mecanico</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>47</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47">
-        <f t="shared" ca="1" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>bifurcacion T</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>48</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="D48" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>policia</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>49</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49">
-        <f t="shared" ca="1" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="D49" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>prohibido tocar bocina</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>50</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50">
-        <f t="shared" ca="1" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="D50" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>limite de largo</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>51</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51">
-        <f t="shared" ca="1" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="D51" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>baden</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>52</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D52" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>aeropuerto</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>53</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53">
-        <f t="shared" ca="1" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="D53" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>escuela</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>54</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="D54" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>atencion</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>55</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D64">
+        <f t="shared" ca="1" si="6"/>
         <v>58</v>
       </c>
-      <c r="D55" t="str">
+      <c r="E64" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>lomo de burro</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>56</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="F64">
+        <f t="shared" ca="1" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>camino lateral oblicuo</v>
+      </c>
+      <c r="H64">
+        <f t="shared" ca="1" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>pendiente peligrosa</v>
+      </c>
+      <c r="J64">
+        <f t="shared" ca="1" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>subida peligrosa</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65">
+        <v>65</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>proximidad de semaforo</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ca="1" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>calzada dividida</v>
+      </c>
+      <c r="H65">
+        <f t="shared" ca="1" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>camino lateral izquierdo</v>
+      </c>
+      <c r="J65">
+        <f t="shared" ca="1" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>curva sinuosa</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66">
+        <v>66</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="6"/>
         <v>63</v>
       </c>
-      <c r="C56">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E66" t="str">
+        <f t="shared" ref="E66:E98" ca="1" si="7">VLOOKUP(D66,$B$1:$C$98,2,FALSE)</f>
+        <v>puente movil</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ca="1" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" ref="G66:G98" ca="1" si="8">VLOOKUP(F66,$B$1:$C$98,2,FALSE)</f>
+        <v>calzada resbaladiza</v>
+      </c>
+      <c r="H66">
+        <f t="shared" ca="1" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" ref="I66:I98" ca="1" si="9">VLOOKUP(H66,$B$1:$C$98,2,FALSE)</f>
+        <v>subida peligrosa</v>
+      </c>
+      <c r="J66">
+        <f t="shared" ca="1" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" ref="K66:K98" ca="1" si="10">VLOOKUP(J66,$B$1:$C$98,2,FALSE)</f>
+        <v>bifurcacion Y</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67">
+        <v>67</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ca="1" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>bifurcacion T</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ca="1" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>calzada dividida</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ca="1" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>baden</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ca="1" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>curva sinuosa</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68">
+        <v>68</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D56" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>curva contracurva</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>57</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="D68">
+        <f t="shared" ca="1" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>bifurcacion T</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ca="1" si="6"/>
         <v>62</v>
       </c>
-      <c r="C57">
-        <f t="shared" ca="1" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="D57" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="G68" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>proximidad de semaforo</v>
+      </c>
+      <c r="H68">
+        <f t="shared" ca="1" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>cruce de caminos</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ca="1" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="K68" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>calzada dividida</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69">
+        <v>69</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69">
+        <f ca="1">RANDBETWEEN($B$69,$B$98)</f>
+        <v>80</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>detencion obligatoria</v>
+      </c>
+      <c r="F69">
+        <f ca="1">RANDBETWEEN($B$69,$B$98)</f>
+        <v>82</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>estacionamiento exclusivo</v>
+      </c>
+      <c r="H69">
+        <f ca="1">RANDBETWEEN($B$69,$B$98)</f>
+        <v>97</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>uso de cadenas</v>
+      </c>
+      <c r="J69">
+        <f ca="1">RANDBETWEEN($B$69,$B$98)</f>
+        <v>77</v>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>conos</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70">
+        <v>70</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ref="D70:J98" ca="1" si="11">RANDBETWEEN($B$69,$B$98)</f>
+        <v>91</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>prohibido adelantarse</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ca="1" si="11"/>
+        <v>69</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>altura max permitida</v>
+      </c>
+      <c r="H70">
+        <f t="shared" ca="1" si="11"/>
+        <v>96</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>puesto de control</v>
+      </c>
+      <c r="J70">
+        <f t="shared" ca="1" si="11"/>
+        <v>77</v>
+      </c>
+      <c r="K70" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>conos</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71">
+        <v>71</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="11"/>
+        <v>88</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>no estacionar ni detenerse</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ca="1" si="11"/>
+        <v>89</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>no girar a la derecha</v>
+      </c>
+      <c r="H71">
+        <f t="shared" ca="1" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>prioridad de paso</v>
+      </c>
+      <c r="J71">
+        <f t="shared" ca="1" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="K71" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>ancho max permitido</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72">
+        <v>72</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="11"/>
+        <v>95</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>prohibido tocar bocina</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="11"/>
+        <v>93</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>prohibido estacionar</v>
+      </c>
+      <c r="H72">
+        <f t="shared" ca="1" si="11"/>
+        <v>71</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>bandillera</v>
+      </c>
+      <c r="J72">
+        <f t="shared" ca="1" si="11"/>
+        <v>88</v>
+      </c>
+      <c r="K72" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>no estacionar ni detenerse</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73">
+        <v>73</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ca="1" si="11"/>
+        <v>69</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>altura max permitida</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>ancho max permitido</v>
+      </c>
+      <c r="H73">
+        <f t="shared" ca="1" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>prioridad de paso</v>
+      </c>
+      <c r="J73">
+        <f t="shared" ca="1" si="11"/>
+        <v>73</v>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>carga maxima permitida</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74">
+        <v>74</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="11"/>
+        <v>85</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>limite velocidad maxima</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ca="1" si="11"/>
+        <v>81</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" ca="1" si="8"/>
         <v>doble circulacion</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>58</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58">
-        <f t="shared" ca="1" si="0"/>
+      <c r="H74">
+        <f t="shared" ca="1" si="11"/>
+        <v>83</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>estrechamiento de calzada</v>
+      </c>
+      <c r="J74">
+        <f t="shared" ca="1" si="11"/>
         <v>98</v>
       </c>
-      <c r="D58" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="K74" t="str">
+        <f t="shared" ca="1" si="10"/>
         <v>vallas</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>59</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D59" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>desvio por cambio de sentido de circulacion</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>60</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60">
-        <f t="shared" ca="1" si="0"/>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75">
+        <v>75</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="11"/>
         <v>84</v>
       </c>
-      <c r="D60" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="E75" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v>limite de largo</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>61</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C61">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D61" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>direcciones permitidas</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>62</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62">
-        <f t="shared" ca="1" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="D62" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>curva en s</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>63</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C63">
-        <f t="shared" ca="1" si="0"/>
+      <c r="F75">
+        <f t="shared" ca="1" si="11"/>
+        <v>91</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>prohibido adelantarse</v>
+      </c>
+      <c r="H75">
+        <f t="shared" ca="1" si="11"/>
+        <v>95</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>prohibido tocar bocina</v>
+      </c>
+      <c r="J75">
+        <f t="shared" ca="1" si="11"/>
+        <v>89</v>
+      </c>
+      <c r="K75" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>no girar a la derecha</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76">
+        <v>76</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>detencion obligatoria</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ca="1" si="11"/>
+        <v>69</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>altura max permitida</v>
+      </c>
+      <c r="H76">
+        <f t="shared" ca="1" si="11"/>
+        <v>75</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>circulacion exclusiva</v>
+      </c>
+      <c r="J76">
+        <f t="shared" ca="1" si="11"/>
+        <v>72</v>
+      </c>
+      <c r="K76" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>carga maxima permitida en eje</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77">
+        <v>77</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="11"/>
+        <v>69</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>altura max permitida</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ca="1" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>prioridad de paso</v>
+      </c>
+      <c r="H77">
+        <f t="shared" ca="1" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>prioridad de paso</v>
+      </c>
+      <c r="J77">
+        <f t="shared" ca="1" si="11"/>
+        <v>86</v>
+      </c>
+      <c r="K77" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>limite velocidad minima</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78">
+        <v>78</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ca="1" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>prioridad de paso</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ca="1" si="11"/>
+        <v>87</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>no avanzar</v>
+      </c>
+      <c r="H78">
+        <f t="shared" ca="1" si="11"/>
+        <v>97</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>uso de cadenas</v>
+      </c>
+      <c r="J78">
+        <f t="shared" ca="1" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="K78" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>prioridad de paso</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79">
+        <v>79</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="11"/>
+        <v>77</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>conos</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="11"/>
+        <v>74</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>ceda el paso</v>
+      </c>
+      <c r="H79">
+        <f t="shared" ca="1" si="11"/>
+        <v>73</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>carga maxima permitida</v>
+      </c>
+      <c r="J79">
+        <f t="shared" ca="1" si="11"/>
+        <v>76</v>
+      </c>
+      <c r="K79" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>circulacion obligatoria</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80">
+        <v>80</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="11"/>
+        <v>73</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>carga maxima permitida</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ca="1" si="11"/>
+        <v>93</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>prohibido estacionar</v>
+      </c>
+      <c r="H80">
+        <f t="shared" ca="1" si="11"/>
+        <v>81</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>doble circulacion</v>
+      </c>
+      <c r="J80">
+        <f t="shared" ca="1" si="11"/>
+        <v>69</v>
+      </c>
+      <c r="K80" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>altura max permitida</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81">
+        <v>81</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="11"/>
+        <v>76</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>circulacion obligatoria</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="11"/>
+        <v>92</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>prohibido circ bicicletas</v>
+      </c>
+      <c r="H81">
+        <f t="shared" ca="1" si="11"/>
+        <v>94</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>prohibido girar en u</v>
+      </c>
+      <c r="J81">
+        <f t="shared" ca="1" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="K81" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>detencion obligatoria</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82">
+        <v>82</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="11"/>
+        <v>88</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>no estacionar ni detenerse</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="11"/>
+        <v>89</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>no girar a la derecha</v>
+      </c>
+      <c r="H82">
+        <f t="shared" ca="1" si="11"/>
+        <v>87</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>no avanzar</v>
+      </c>
+      <c r="J82">
+        <f t="shared" ca="1" si="11"/>
+        <v>92</v>
+      </c>
+      <c r="K82" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>prohibido circ bicicletas</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83">
+        <v>83</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="11"/>
+        <v>92</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>prohibido circ bicicletas</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="11"/>
+        <v>79</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>desvio</v>
+      </c>
+      <c r="H83">
+        <f t="shared" ca="1" si="11"/>
+        <v>92</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>prohibido circ bicicletas</v>
+      </c>
+      <c r="J83">
+        <f t="shared" ca="1" si="11"/>
+        <v>89</v>
+      </c>
+      <c r="K83" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>no girar a la derecha</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84">
+        <v>84</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ca="1" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>prioridad de paso</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="11"/>
+        <v>71</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>bandillera</v>
+      </c>
+      <c r="H84">
+        <f t="shared" ca="1" si="11"/>
+        <v>92</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>prohibido circ bicicletas</v>
+      </c>
+      <c r="J84">
+        <f t="shared" ca="1" si="11"/>
+        <v>87</v>
+      </c>
+      <c r="K84" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>no avanzar</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85">
+        <v>85</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ca="1" si="11"/>
+        <v>94</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>prohibido girar en u</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="11"/>
+        <v>79</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>desvio</v>
+      </c>
+      <c r="H85">
+        <f t="shared" ca="1" si="11"/>
+        <v>82</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>estacionamiento exclusivo</v>
+      </c>
+      <c r="J85">
+        <f t="shared" ca="1" si="11"/>
+        <v>88</v>
+      </c>
+      <c r="K85" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>no estacionar ni detenerse</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86">
+        <v>86</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="11"/>
+        <v>79</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>desvio</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ca="1" si="11"/>
+        <v>96</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>puesto de control</v>
+      </c>
+      <c r="H86">
+        <f t="shared" ca="1" si="11"/>
+        <v>71</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>bandillera</v>
+      </c>
+      <c r="J86">
+        <f t="shared" ca="1" si="11"/>
+        <v>96</v>
+      </c>
+      <c r="K86" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>puesto de control</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87">
+        <v>87</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="11"/>
+        <v>91</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>prohibido adelantarse</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="11"/>
+        <v>82</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>estacionamiento exclusivo</v>
+      </c>
+      <c r="H87">
+        <f t="shared" ca="1" si="11"/>
+        <v>74</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>ceda el paso</v>
+      </c>
+      <c r="J87">
+        <f t="shared" ca="1" si="11"/>
+        <v>94</v>
+      </c>
+      <c r="K87" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>prohibido girar en u</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88">
+        <v>88</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D63" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>atencion</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>64</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C64">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D88">
+        <f t="shared" ca="1" si="11"/>
+        <v>72</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>carga maxima permitida en eje</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="11"/>
+        <v>92</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>prohibido circ bicicletas</v>
+      </c>
+      <c r="H88">
+        <f t="shared" ca="1" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>detencion obligatoria</v>
+      </c>
+      <c r="J88">
+        <f t="shared" ca="1" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="K88" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>ancho max permitido</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89">
+        <v>89</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>detencion obligatoria</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ca="1" si="11"/>
+        <v>92</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>prohibido circ bicicletas</v>
+      </c>
+      <c r="H89">
+        <f t="shared" ca="1" si="11"/>
+        <v>87</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>no avanzar</v>
+      </c>
+      <c r="J89">
+        <f t="shared" ca="1" si="11"/>
+        <v>75</v>
+      </c>
+      <c r="K89" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>circulacion exclusiva</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90">
+        <v>90</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="11"/>
+        <v>69</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>altura max permitida</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ca="1" si="11"/>
+        <v>94</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>prohibido girar en u</v>
+      </c>
+      <c r="H90">
+        <f t="shared" ca="1" si="11"/>
+        <v>69</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>altura max permitida</v>
+      </c>
+      <c r="J90">
+        <f t="shared" ca="1" si="11"/>
+        <v>79</v>
+      </c>
+      <c r="K90" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>desvio</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91">
+        <v>91</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="11"/>
+        <v>94</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>prohibido girar en u</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ca="1" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>ancho max permitido</v>
+      </c>
+      <c r="H91">
+        <f t="shared" ca="1" si="11"/>
+        <v>88</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>no estacionar ni detenerse</v>
+      </c>
+      <c r="J91">
+        <f t="shared" ca="1" si="11"/>
+        <v>73</v>
+      </c>
+      <c r="K91" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>carga maxima permitida</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92">
+        <v>92</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="11"/>
+        <v>73</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>carga maxima permitida</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="11"/>
+        <v>88</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>no estacionar ni detenerse</v>
+      </c>
+      <c r="H92">
+        <f t="shared" ca="1" si="11"/>
+        <v>82</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>estacionamiento exclusivo</v>
+      </c>
+      <c r="J92">
+        <f t="shared" ca="1" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="K92" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>detencion obligatoria</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93">
+        <v>93</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="11"/>
+        <v>96</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>puesto de control</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ca="1" si="11"/>
+        <v>92</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>prohibido circ bicicletas</v>
+      </c>
+      <c r="H93">
+        <f t="shared" ca="1" si="11"/>
+        <v>79</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>desvio</v>
+      </c>
+      <c r="J93">
+        <f t="shared" ca="1" si="11"/>
+        <v>88</v>
+      </c>
+      <c r="K93" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>no estacionar ni detenerse</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94">
+        <v>94</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="11"/>
+        <v>71</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>bandillera</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="11"/>
+        <v>69</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>altura max permitida</v>
+      </c>
+      <c r="H94">
+        <f t="shared" ca="1" si="11"/>
+        <v>69</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>altura max permitida</v>
+      </c>
+      <c r="J94">
+        <f t="shared" ca="1" si="11"/>
+        <v>97</v>
+      </c>
+      <c r="K94" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>uso de cadenas</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95">
+        <v>95</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="11"/>
+        <v>88</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>no estacionar ni detenerse</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ca="1" si="11"/>
+        <v>82</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>estacionamiento exclusivo</v>
+      </c>
+      <c r="H95">
+        <f t="shared" ca="1" si="11"/>
         <v>85</v>
       </c>
-      <c r="D64" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="I95" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>limite velocidad maxima</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>65</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C65">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="D65" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>bifurcacion Y</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>66</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C66">
-        <f t="shared" ref="C66:C98" ca="1" si="2">RANDBETWEEN($A$1,$A$98)</f>
-        <v>72</v>
-      </c>
-      <c r="D66" t="str">
-        <f t="shared" ref="D66:D98" ca="1" si="3">VLOOKUP(C66,$A$1:$B$98,2,FALSE)</f>
-        <v>carga maxima permitida en eje</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>67</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C67">
-        <f t="shared" ca="1" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="D67" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>mojon kilometro</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>68</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C68">
-        <f t="shared" ca="1" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="D68" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>curva en s</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="J95">
+        <f t="shared" ca="1" si="11"/>
+        <v>98</v>
+      </c>
+      <c r="K95" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>vallas</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96">
+        <v>96</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="11"/>
+        <v>92</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>prohibido circ bicicletas</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ca="1" si="11"/>
+        <v>88</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>no estacionar ni detenerse</v>
+      </c>
+      <c r="H96">
+        <f t="shared" ca="1" si="11"/>
+        <v>83</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>estrechamiento de calzada</v>
+      </c>
+      <c r="J96">
+        <f t="shared" ca="1" si="11"/>
+        <v>71</v>
+      </c>
+      <c r="K96" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>bandillera</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97">
+        <v>97</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="11"/>
+        <v>79</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>desvio</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="11"/>
+        <v>91</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>prohibido adelantarse</v>
+      </c>
+      <c r="H97">
+        <f t="shared" ca="1" si="11"/>
+        <v>92</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>prohibido circ bicicletas</v>
+      </c>
+      <c r="J97">
+        <f t="shared" ca="1" si="11"/>
         <v>69</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C69">
-        <f t="shared" ca="1" si="2"/>
+      <c r="K97" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>altura max permitida</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98">
+        <v>98</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="11"/>
         <v>87</v>
       </c>
-      <c r="D69" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="E98" t="str">
+        <f t="shared" ca="1" si="7"/>
         <v>no avanzar</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="F98">
+        <f t="shared" ca="1" si="11"/>
+        <v>85</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>limite velocidad maxima</v>
+      </c>
+      <c r="H98">
+        <f t="shared" ca="1" si="11"/>
+        <v>77</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>conos</v>
+      </c>
+      <c r="J98">
+        <f t="shared" ca="1" si="11"/>
         <v>70</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C70">
-        <f t="shared" ca="1" si="2"/>
-        <v>69</v>
-      </c>
-      <c r="D70" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>altura max permitida</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>71</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C71">
-        <f t="shared" ca="1" si="2"/>
-        <v>98</v>
-      </c>
-      <c r="D71" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>vallas</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>72</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C72">
-        <f t="shared" ca="1" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="D72" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>circulacion exclusiva</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>73</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C73">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="D73" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>direccion permitida</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>74</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C74">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="D74" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>direcciones permitidas</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>75</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C75">
-        <f t="shared" ca="1" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="D75" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>bifurcacion T</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>76</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C76">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="D76" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>esquema de recorrido</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>77</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C77">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="D77" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>hotel</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>78</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C78">
-        <f t="shared" ca="1" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="D78" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>ruta nacional</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>79</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C79">
-        <f t="shared" ca="1" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="D79" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>circulacion obligatoria</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>80</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C80">
-        <f t="shared" ca="1" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="D80" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>ancho limitado</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>81</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C81">
-        <f t="shared" ca="1" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="D81" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>identificacion comienzo de zona urbana</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>82</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C82">
-        <f t="shared" ca="1" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="D82" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>subida peligrosa</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>83</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C83">
-        <f t="shared" ca="1" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="D83" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>utilizacion de carriles</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>84</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C84">
-        <f t="shared" ca="1" si="2"/>
-        <v>59</v>
-      </c>
-      <c r="D84" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>maquinaria agricola</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>85</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C85">
-        <f t="shared" ca="1" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="D85" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>panel de prevencion</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>86</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C86">
-        <f t="shared" ca="1" si="2"/>
-        <v>86</v>
-      </c>
-      <c r="D86" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>limite velocidad minima</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>87</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C87">
-        <f t="shared" ca="1" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="D87" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>museo</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>88</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C88">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="D88" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>identificacion de jurisdiccion</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>89</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="D89" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>esquema de recorrido</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>90</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C90">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="D90" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>estacionamiento permitido</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>91</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C91">
-        <f t="shared" ca="1" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="D91" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>identificacion comienzo de zona urbana</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>92</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C92">
-        <f t="shared" ca="1" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="D92" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Rotonda</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>93</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="D93" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>gomeria</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>94</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C94">
-        <f t="shared" ca="1" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="D94" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>camino lateral oblicuo</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>95</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C95">
-        <f t="shared" ca="1" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="D95" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>ruta nacional</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>96</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C96">
-        <f t="shared" ca="1" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="D96" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>panel de prevencion curva</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>97</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C97">
-        <f t="shared" ca="1" si="2"/>
-        <v>73</v>
-      </c>
-      <c r="D97" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>carga maxima permitida</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>98</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C98">
-        <f t="shared" ca="1" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="D98" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>curva peligrosa</v>
+      <c r="K98" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>ancho max permitido</v>
       </c>
     </row>
   </sheetData>
